--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0049_Filter Pipeline Cart.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0049_Filter Pipeline Cart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\Digisales\Lib_Repo_Excel\FileExcel_Digisales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B63B4A4-B4DE-4FBF-8FBA-F1CB1265F34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E150C08-AD05-435B-B049-243B5DB5A5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4305" yWindow="2925" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCD0049" sheetId="2" r:id="rId1"/>
@@ -493,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EAF5E5-8229-45B3-AC11-8AED029F52F4}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,7 +578,7 @@
         <v>21</v>
       </c>
       <c r="F2" s="11">
-        <v>24068</v>
+        <v>49998</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>8</v>
